--- a/Public_data/NACE_table.xlsx
+++ b/Public_data/NACE_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rusnesileryte/Documents/GitHub/geoFluxus/Public_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D53A673-D666-2043-AD22-B41106FFDDCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF68C372-3826-7F44-AE6E-379FA4E8E0F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{81788B9F-A2E3-FB4C-BA66-C6E130F97ED3}"/>
   </bookViews>
@@ -21210,8 +21210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530A82B7-6FF7-1840-ADB3-489D4E208196}">
   <dimension ref="A1:K637"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="C605" workbookViewId="0">
+      <selection activeCell="F613" sqref="F613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
